--- a/EVA6S4/part1_excel/NN.xlsx
+++ b/EVA6S4/part1_excel/NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajy\Downloads\Courses\EVA4P2\gitrepo\EVA6\EVA6S4\part1_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE2BC3-BA63-40C7-B0DC-BF9B0FD31620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB45213-E00D-484A-A6E5-5CA0FD114F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{13B3319D-7583-4DB6-BC65-58C6685E8513}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{13B3319D-7583-4DB6-BC65-58C6685E8513}"/>
   </bookViews>
   <sheets>
     <sheet name="LR0.1" sheetId="3" r:id="rId1"/>
@@ -8425,15 +8425,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>190948</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>242048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>77591</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575758</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>319638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8456,8 +8456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594360" y="1"/>
-          <a:ext cx="5875020" cy="3003670"/>
+          <a:off x="190948" y="609601"/>
+          <a:ext cx="5871210" cy="3000084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8512,16 +8512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>715384</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295836</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9768,7 +9768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>-4.2121356413822648E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="18">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="18">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-4.2432848627265533E-2</v>
       </c>
       <c r="AB16">
@@ -16341,7 +16341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>-4.1789177618459211E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="18">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="18">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-4.2098177034966835E-2</v>
       </c>
       <c r="AB16">
@@ -22813,7 +22813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C18F7E-4FF7-4FEF-8DF5-D4A5227D2965}">
   <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -22914,7 +22914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>6.1102080458226654E-2</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W79" si="17">U16+V16</f>
+        <f t="shared" ref="W16:W60" si="17">U16+V16</f>
         <v>0.22862020600870744</v>
       </c>
       <c r="X16">
@@ -23405,7 +23405,7 @@
         <v>-4.0803222041132202E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="21">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="21">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-4.110482430816511E-2</v>
       </c>
       <c r="AB16">
@@ -28795,7 +28795,7 @@
     </row>
     <row r="101" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W101">
-        <f t="shared" ref="W80:W143" si="31">U101+V101</f>
+        <f t="shared" ref="W101:W143" si="31">U101+V101</f>
         <v>0</v>
       </c>
     </row>
@@ -29487,7 +29487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -29978,7 +29978,7 @@
         <v>-3.983369653584206E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="18">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="18">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-4.0128027685023125E-2</v>
       </c>
       <c r="AB16">
@@ -36060,7 +36060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -36080,7 +36080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -36551,7 +36551,7 @@
         <v>-3.9196792037676453E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="18">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="18">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-3.9486348159691466E-2</v>
       </c>
       <c r="AB16">
@@ -42633,7 +42633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
@@ -42653,7 +42653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
         <v>34</v>
       </c>
@@ -43124,7 +43124,7 @@
         <v>-3.6131230136519511E-2</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA79" si="18">(T16-B16)*T16*(1-T16)*L16</f>
+        <f t="shared" ref="AA16:AA60" si="18">(T16-B16)*T16*(1-T16)*L16</f>
         <v>-3.6397821248313075E-2</v>
       </c>
       <c r="AB16">
@@ -49105,7 +49105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BB431-1CF1-4509-B19F-D0E528D441EA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
